--- a/Dataset/Folds/Fold_3/Excel/80.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/80.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="169">
   <si>
     <t>Doi</t>
   </si>
@@ -540,6 +540,54 @@
   </si>
   <si>
     <t>[Chunchen%Wu%NULL%1,                            Wenzhong%Yang%NULL%1,                            Xiaoxue%Wu%NULL%1,                            Tianzhu%Zhang%NULL%1,                            Yaoyao%Zhao%NULL%1,                            Wei%Ren%ren33107@163.com%1,                            Jianbo%Xia%xjb915@126.com%2,                            Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                             Rana%Magdi%NULL%1,                             Nader%Hindi%NULL%1,                             Mohamed%Elshebiny%NULL%1,                             Nourhan%Farrag%NULL%1,                             Shahd%Mahdy%NULL%1,                             Mohamed%Sabbour%NULL%1,                             Sara%Gebril%NULL%1,                             Mohamed%Nasser%NULL%1,                             Menna%Kamel%NULL%1,                             Abdelrahman%Amir%NULL%1,                             Moataz%Maher Emara%NULL%1,                             Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                             Lefei%Han%NULL%0,                             Min%Peng%2658706528@qq.com%0,                             Yuxia%Lv%NULL%0,                             Yin%Ouyang%NULL%0,                             Kui%Liu%NULL%0,                             Linli%Yue%NULL%0,                             Qiannan%Li%NULL%0,                             Guoqiang%Sun%NULL%0,                             Lin%Chen%NULL%0,                             Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                             M. M.%Gil%NULL%1,                             Z.%Rong%NULL%2,                             Z.%Rong%NULL%0,                             Y.%Zhang%NULL%1,                             H.%Yang%liona.poon@cuhk.edu.hk%1,                             L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                             Wenzhong%Yang%NULL%1,                             Xiaoxue%Wu%NULL%1,                             Tianzhu%Zhang%NULL%1,                             Yaoyao%Zhao%NULL%1,                             Wei%Ren%ren33107@163.com%1,                             Jianbo%Xia%xjb915@126.com%2,                             Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%1,                              Rana%Magdi%NULL%1,                              Nader%Hindi%NULL%1,                              Mohamed%Elshebiny%NULL%1,                              Nourhan%Farrag%NULL%1,                              Shahd%Mahdy%NULL%1,                              Mohamed%Sabbour%NULL%1,                              Sara%Gebril%NULL%1,                              Mohamed%Nasser%NULL%1,                              Menna%Kamel%NULL%1,                              Abdelrahman%Amir%NULL%1,                              Moataz%Maher Emara%NULL%1,                              Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0,                              Lefei%Han%NULL%0,                              Min%Peng%2658706528@qq.com%0,                              Yuxia%Lv%NULL%0,                              Yin%Ouyang%NULL%0,                              Kui%Liu%NULL%0,                              Linli%Yue%NULL%0,                              Qiannan%Li%NULL%0,                              Guoqiang%Sun%NULL%0,                              Lin%Chen%NULL%0,                              Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%1,                              M. M.%Gil%NULL%1,                              Z.%Rong%NULL%2,                              Z.%Rong%NULL%0,                              Y.%Zhang%NULL%1,                              H.%Yang%liona.poon@cuhk.edu.hk%1,                              L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%1,                              Wenzhong%Yang%NULL%1,                              Xiaoxue%Wu%NULL%1,                              Tianzhu%Zhang%NULL%1,                              Yaoyao%Zhao%NULL%1,                              Wei%Ren%ren33107@163.com%1,                              Jianbo%Xia%xjb915@126.com%2,                              Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Farida%Elshafeey%NULL%0, Rana%Magdi%NULL%1, Nader%Hindi%NULL%1, Mohamed%Elshebiny%NULL%1, Nourhan%Farrag%NULL%1, Shahd%Mahdy%NULL%1, Mohamed%Sabbour%NULL%1, Sara%Gebril%NULL%1, Mohamed%Nasser%NULL%1, Menna%Kamel%NULL%1, Abdelrahman%Amir%NULL%1, Moataz%Maher Emara%NULL%1, Ashraf%Nabhan%anabhan@med.asu.edu.eg%1]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Na%Li%NULL%0, Lefei%Han%NULL%0, Min%Peng%2658706528@qq.com%0, Yuxia%Lv%NULL%0, Yin%Ouyang%NULL%0, Kui%Liu%NULL%0, Linli%Yue%NULL%0, Qiannan%Li%NULL%0, Guoqiang%Sun%NULL%0, Lin%Chen%NULL%0, Lin%Yang%l.yang@polyu.edu.hk%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[J.%Juan%NULL%0, M. M.%Gil%NULL%1, Z.%Rong%NULL%2, Z.%Rong%NULL%0, Y.%Zhang%NULL%0, H.%Yang%liona.poon@cuhk.edu.hk%1, L. C.%Poon%liona.poon@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Ltd</t>
+  </si>
+  <si>
+    <t>[Chunchen%Wu%NULL%0, Wenzhong%Yang%NULL%1, Xiaoxue%Wu%NULL%1, Tianzhu%Zhang%NULL%1, Yaoyao%Zhao%NULL%1, Wei%Ren%ren33107@163.com%1, Jianbo%Xia%xjb915@126.com%2, Jianbo%Xia%xjb915@126.com%0]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
   </si>
 </sst>
 </file>
@@ -878,7 +926,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -890,10 +938,10 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -910,7 +958,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -922,10 +970,10 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4">
@@ -942,7 +990,7 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -954,10 +1002,10 @@
         <v>32</v>
       </c>
       <c r="I4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5">
@@ -974,7 +1022,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
         <v>36</v>
@@ -986,10 +1034,10 @@
         <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
